--- a/testresults.xlsx
+++ b/testresults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramj\Documents\Ingenieur\WIT\MASTER_2\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29732B2E-240A-45A2-8728-6C0AA7AE80C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177D75C7-7EA0-431C-BE8D-504CB03DECA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{2A192508-2A1C-480C-94C6-ADC644D4972E}"/>
   </bookViews>
@@ -2837,9 +2837,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$74:$F$74</c:f>
+              <c:f>Sheet1!$C$74:$E$74</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>LU</c:v>
                 </c:pt>
@@ -2848,19 +2848,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>BICGSTAB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MINRES</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$75:$F$75</c:f>
+              <c:f>Sheet1!$C$75:$E$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3.98262180606253</c:v>
                 </c:pt>
@@ -2869,9 +2866,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.64448212519429</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65564938481970503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2937,9 +2931,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$74:$F$74</c:f>
+              <c:f>Sheet1!$C$74:$E$74</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>LU</c:v>
                 </c:pt>
@@ -2948,19 +2942,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>BICGSTAB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MINRES</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$76:$F$76</c:f>
+              <c:f>Sheet1!$C$76:$E$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>4.7437618147447997</c:v>
                 </c:pt>
@@ -2969,9 +2960,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.00186190845616</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.69691561900703103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3037,9 +3025,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$74:$F$74</c:f>
+              <c:f>Sheet1!$C$74:$E$74</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>LU</c:v>
                 </c:pt>
@@ -3048,19 +3036,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>BICGSTAB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MINRES</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$77:$F$77</c:f>
+              <c:f>Sheet1!$C$77:$E$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>4.7572511848341197</c:v>
                 </c:pt>
@@ -3069,9 +3054,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.0161943319838</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.69842244347756399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3079,106 +3061,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-03C6-4E81-A937-DBDC1F511E0E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$78</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MINRES</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$74:$F$74</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GMRES</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BICGSTAB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MINRES</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$78:$F$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.76187078754022697</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65660681052260905</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66112990874602595</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2443815405729901</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-03C6-4E81-A937-DBDC1F511E0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3420,8 +3302,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="tr"/>
-      <c:overlay val="1"/>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3640,9 +3522,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$81:$F$81</c:f>
+              <c:f>Sheet1!$C$81:$E$81</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>LU</c:v>
                 </c:pt>
@@ -3651,19 +3533,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>BICGSTAB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MINRES</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$82:$F$82</c:f>
+              <c:f>Sheet1!$C$82:$E$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>12602</c:v>
                 </c:pt>
@@ -3672,9 +3551,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7077</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,9 +3616,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$81:$F$81</c:f>
+              <c:f>Sheet1!$C$81:$E$81</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>LU</c:v>
                 </c:pt>
@@ -3751,19 +3627,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>BICGSTAB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MINRES</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$83:$F$83</c:f>
+              <c:f>Sheet1!$C$83:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>10580</c:v>
                 </c:pt>
@@ -3772,9 +3645,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6445</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3840,9 +3710,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$81:$F$81</c:f>
+              <c:f>Sheet1!$C$81:$E$81</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>LU</c:v>
                 </c:pt>
@@ -3851,19 +3721,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>BICGSTAB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MINRES</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$84:$F$84</c:f>
+              <c:f>Sheet1!$C$84:$E$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>10550</c:v>
                 </c:pt>
@@ -3872,9 +3739,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6422</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3882,106 +3746,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AD7E-4E5B-AFBA-65652EF7036D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$85</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MINRES</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$81:$F$81</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GMRES</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BICGSTAB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MINRES</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$85:$F$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>65876</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39762</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11658</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AD7E-4E5B-AFBA-65652EF7036D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4218,7 +3982,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="tr"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8653,8 +8417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C33A822-2F37-4EAE-9049-0190C56A678D}">
   <dimension ref="A2:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/testresults.xlsx
+++ b/testresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramj\Documents\Ingenieur\WIT\MASTER_2\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177D75C7-7EA0-431C-BE8D-504CB03DECA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB59E2BF-A37F-4CFC-B230-1CCD9B87C905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{2A192508-2A1C-480C-94C6-ADC644D4972E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A192508-2A1C-480C-94C6-ADC644D4972E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -691,10 +691,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -705,7 +705,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -724,7 +724,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Temporal refinement</a:t>
             </a:r>
           </a:p>
@@ -743,7 +743,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -777,7 +777,7 @@
           <c:spPr>
             <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -796,21 +796,21 @@
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent2">
                       <a:satMod val="103000"/>
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent2">
                       <a:satMod val="110000"/>
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent2">
                       <a:lumMod val="99000"/>
                       <a:satMod val="120000"/>
                       <a:shade val="78000"/>
@@ -821,7 +821,7 @@
               </a:gradFill>
               <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -940,15 +940,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1800"/>
                   <a:t>Δt_c/</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="el-GR"/>
+                  <a:rPr lang="el-GR" sz="1800"/>
                   <a:t>Δ</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1800"/>
                   <a:t>t_F</a:t>
                 </a:r>
               </a:p>
@@ -1002,7 +1002,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -1060,7 +1060,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1800"/>
                   <a:t>speedup</a:t>
                 </a:r>
               </a:p>
@@ -1114,7 +1114,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -4100,42 +4100,8 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -7888,8 +7854,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8417,8 +8383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C33A822-2F37-4EAE-9049-0190C56A678D}">
   <dimension ref="A2:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="U48" sqref="U48"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
